--- a/Lesson8/Сравнение Алгоритмов Сортировки.xlsx
+++ b/Lesson8/Сравнение Алгоритмов Сортировки.xlsx
@@ -69,9 +69,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Пинарин О.В.</t>
-  </si>
-  <si>
     <t>Процессор</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Visual Studio 2017</t>
+  </si>
+  <si>
+    <t>Пинарин Олег Валерьевич</t>
   </si>
 </sst>
 </file>
@@ -198,9 +198,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
@@ -210,6 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -516,7 +516,7 @@
   <dimension ref="C1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,39 +533,39 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="3:8">
       <c r="E6">
@@ -585,15 +585,15 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>(E6*E6-E6)</f>
         <v>999000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" ref="F7:G7" si="0">(F6*F6-F6)</f>
         <v>99990000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>9999900000</v>
       </c>
@@ -602,13 +602,13 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>256493</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>24835089</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2505036457</v>
       </c>
       <c r="H8" t="s">
@@ -619,13 +619,13 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>9.9900000000000006E-3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>60.798999999999999</v>
       </c>
     </row>
@@ -636,15 +636,15 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>(E6*E6-E6)/2</f>
         <v>499500</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" ref="F10:G10" si="1">(F6*F6-F6)/2</f>
         <v>49995000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>4999950000</v>
       </c>
@@ -653,13 +653,13 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>256493</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>24835089</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2498138078</v>
       </c>
       <c r="H11" t="s">
@@ -670,13 +670,13 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3.9960000000000004E-3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.3847623</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>44.739319999999999</v>
       </c>
     </row>
@@ -687,15 +687,15 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>(E6*E6+E6)/2</f>
         <v>500500</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" ref="F13:G13" si="2">(F6*F6+F6)/2</f>
         <v>50005000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>5000050000</v>
       </c>
@@ -704,13 +704,13 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>5494</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>77110</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1025778</v>
       </c>
       <c r="H14" t="s">
@@ -721,13 +721,13 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.23885000000000001</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>26.175899999999999</v>
       </c>
     </row>
@@ -738,15 +738,15 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>E6*LOG10(E6)</f>
         <v>3000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>F6*LOG10(F6)</f>
         <v>40000</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>G6*LOG10(G6)</f>
         <v>500000</v>
       </c>
@@ -755,13 +755,13 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>6505</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>92753</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>1100186</v>
       </c>
       <c r="H17" t="s">
@@ -772,13 +772,13 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1.5990000000000001E-2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>4.9970000000000001E-2</v>
       </c>
     </row>
@@ -789,15 +789,15 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f>E6*LOG(E6,2)</f>
         <v>9965.7842846620879</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" ref="F19:G19" si="3">F6*LOG(F6,2)</f>
         <v>132877.1237954945</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="3"/>
         <v>1660964.0474436812</v>
       </c>
@@ -806,13 +806,13 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>9976</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>133616</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>1668928</v>
       </c>
       <c r="H20" t="s">
@@ -823,13 +823,13 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>2.6980000000000001E-2</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>7.7950000000000005E-2</v>
       </c>
     </row>
@@ -840,15 +840,15 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>E6*E6</f>
         <v>1000000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" ref="F22:G22" si="4">F6*F6</f>
         <v>100000000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="4"/>
         <v>10000000000</v>
       </c>
@@ -857,13 +857,13 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>3000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>30000</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>300000</v>
       </c>
       <c r="H23" t="s">
@@ -874,13 +874,13 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>1.099E-2</v>
       </c>
     </row>
